--- a/assets/workbooks/simple_sheet.xlsx
+++ b/assets/workbooks/simple_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamkumar/Documents/git-repos/xlsx-merge-framework/assets/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF4532B-9A01-214D-8EBE-2C5D2EC7DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6807FFBA-9CF4-984E-9D59-5F7CAAEDFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{7C30CA65-447F-5D40-BDEE-004E00C3F15C}"/>
   </bookViews>
@@ -402,27 +402,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917875E2-B2A0-A143-B72A-A0DB6E3048FD}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/assets/workbooks/simple_sheet.xlsx
+++ b/assets/workbooks/simple_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamkumar/Documents/git-repos/xlsx-merge-framework/assets/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6807FFBA-9CF4-984E-9D59-5F7CAAEDFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD58C5-575D-6E47-B0D4-9C7565C00316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{7C30CA65-447F-5D40-BDEE-004E00C3F15C}"/>
   </bookViews>
@@ -402,32 +402,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917875E2-B2A0-A143-B72A-A0DB6E3048FD}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2</v>
       </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/assets/workbooks/simple_sheet.xlsx
+++ b/assets/workbooks/simple_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamkumar/Documents/git-repos/xlsx-merge-framework/assets/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD58C5-575D-6E47-B0D4-9C7565C00316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96F9599-C8C9-FC4B-9DD0-9A96D1F47867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{7C30CA65-447F-5D40-BDEE-004E00C3F15C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,13 +45,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +428,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,12 +445,12 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>6</v>
       </c>
       <c r="B3">
@@ -438,7 +461,7 @@
       <c r="A4">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>7</v>
       </c>
     </row>

--- a/assets/workbooks/simple_sheet.xlsx
+++ b/assets/workbooks/simple_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamkumar/Documents/git-repos/xlsx-merge-framework/assets/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96F9599-C8C9-FC4B-9DD0-9A96D1F47867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72164DC4-45BB-294A-9D37-CAE62C7AC267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{7C30CA65-447F-5D40-BDEE-004E00C3F15C}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/workbooks/simple_sheet.xlsx
+++ b/assets/workbooks/simple_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamkumar/Documents/git-repos/xlsx-merge-framework/assets/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72164DC4-45BB-294A-9D37-CAE62C7AC267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E044F971-40A1-A141-9352-F1443985041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{7C30CA65-447F-5D40-BDEE-004E00C3F15C}"/>
   </bookViews>
@@ -53,7 +53,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -69,7 +68,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -86,10 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +428,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,15 +445,15 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>3</v>
       </c>
     </row>
@@ -461,7 +461,7 @@
       <c r="A4">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>7</v>
       </c>
     </row>
